--- a/AOSMapmaker/docs/dimensions.xlsx
+++ b/AOSMapmaker/docs/dimensions.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bhipsher\git\localAOSMapMaker\AOSMapmaker\src\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bhipsher\git\localAOSMapMaker\AOSMapmaker\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A370BF22-3684-4BEA-84E6-52041BBDEDF7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98ADD00E-E083-4423-AD2E-AA3DDBE2C2FF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23325" yWindow="4890" windowWidth="28800" windowHeight="15435" xr2:uid="{40905910-5CB8-4363-AAC9-7B82BA24352D}"/>
+    <workbookView xWindow="9600" yWindow="4890" windowWidth="28800" windowHeight="15435" xr2:uid="{40905910-5CB8-4363-AAC9-7B82BA24352D}"/>
   </bookViews>
   <sheets>
     <sheet name="Vert" sheetId="1" r:id="rId1"/>
@@ -1468,7 +1468,7 @@
   <dimension ref="B4:J35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F38" sqref="F38"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1711,12 +1711,12 @@
         <v>6</v>
       </c>
       <c r="D22" s="9">
-        <f>280*5.2</f>
-        <v>1456</v>
+        <f>280*4</f>
+        <v>1120</v>
       </c>
       <c r="E22" s="10">
         <f>ROUND(D22,0)</f>
-        <v>1456</v>
+        <v>1120</v>
       </c>
       <c r="F22" s="4">
         <f>(E22-D22)/D22</f>
@@ -1732,15 +1732,15 @@
       </c>
       <c r="D23">
         <f>D22*D17</f>
-        <v>1125.090909090909</v>
+        <v>865.45454545454538</v>
       </c>
       <c r="E23" s="11">
         <f>ROUND(D23,0)</f>
-        <v>1125</v>
+        <v>865</v>
       </c>
       <c r="F23" s="4">
         <f>(E23-D23)/D23</f>
-        <v>-8.08015513897132E-5</v>
+        <v>-5.2521008403352994E-4</v>
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.25">
@@ -1755,15 +1755,15 @@
       </c>
       <c r="D25" s="18">
         <f>D22*D16+5</f>
-        <v>187.39083750894775</v>
+        <v>145.30064423765211</v>
       </c>
       <c r="E25" s="14">
         <f>ROUND(D25,0)</f>
-        <v>187</v>
+        <v>145</v>
       </c>
       <c r="F25" s="4">
         <f>(E25-D25)/D25</f>
-        <v>-2.0856809977653915E-3</v>
+        <v>-2.0691184077640946E-3</v>
       </c>
       <c r="G25" s="8" t="b">
         <f>ISEVEN(E25)</f>
@@ -1782,15 +1782,15 @@
       </c>
       <c r="D26" s="16">
         <f>D25*D18</f>
-        <v>216.3803009589208</v>
+        <v>167.77873212806898</v>
       </c>
       <c r="E26" s="16">
         <f>ROUND(D26,0)</f>
-        <v>216</v>
+        <v>168</v>
       </c>
       <c r="F26" s="4">
         <f>(E26-D26)/D26</f>
-        <v>-1.7575581383122206E-3</v>
+        <v>1.3188076290987865E-3</v>
       </c>
       <c r="G26" s="8" t="b">
         <f>ISEVEN(E26)</f>
@@ -1809,15 +1809,15 @@
       </c>
       <c r="D27" s="14">
         <f>D25/2</f>
-        <v>93.695418754473877</v>
+        <v>72.650322118826054</v>
       </c>
       <c r="E27" s="15">
         <f>ROUND(D27,0)</f>
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="F27" s="4">
         <f>(E27-D27)/D27</f>
-        <v>3.250759210802708E-3</v>
+        <v>4.8131635342513251E-3</v>
       </c>
       <c r="G27" s="8" t="b">
         <f>F27&lt;0</f>
@@ -1836,19 +1836,19 @@
       </c>
       <c r="D28" s="12">
         <f>D25*D19</f>
-        <v>162.28522571919061</v>
+        <v>125.83404909605173</v>
       </c>
       <c r="E28" s="13">
         <f>ROUND(D28,0)</f>
-        <v>162</v>
+        <v>126</v>
       </c>
       <c r="F28" s="4">
         <f>(E28-D28)/D28</f>
-        <v>-1.7575581383122644E-3</v>
+        <v>1.3188076290988431E-3</v>
       </c>
       <c r="G28" s="8" t="b">
         <f>F28&lt;0</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H28" s="5" t="s">
         <v>23</v>
@@ -1863,19 +1863,19 @@
       </c>
       <c r="D29" s="16">
         <f>D26/2</f>
-        <v>108.1901504794604</v>
+        <v>83.88936606403449</v>
       </c>
       <c r="E29" s="17">
         <f>ROUND(D29,0)</f>
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="F29" s="4">
         <f>(E29-D29)/D29</f>
-        <v>-1.7575581383122206E-3</v>
+        <v>1.3188076290987865E-3</v>
       </c>
       <c r="G29" s="8" t="b">
         <f>F29&lt;0</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H29" s="5" t="s">
         <v>39</v>
@@ -1901,7 +1901,7 @@
       </c>
       <c r="D32">
         <f>D22/D25</f>
-        <v>7.769856943675153</v>
+        <v>7.7081557750572705</v>
       </c>
       <c r="E32" s="7"/>
       <c r="F32" s="3"/>
@@ -1915,7 +1915,7 @@
       </c>
       <c r="D33">
         <f>D32</f>
-        <v>7.769856943675153</v>
+        <v>7.7081557750572705</v>
       </c>
       <c r="E33" s="11">
         <f>FLOOR(D33,1)</f>
@@ -1923,7 +1923,7 @@
       </c>
       <c r="F33" s="3">
         <f>(E33-D33)/D33</f>
-        <v>-9.9082511976212734E-2</v>
+        <v>-9.1870973514674326E-2</v>
       </c>
       <c r="G33" s="8" t="b">
         <f>F33&lt;0</f>
@@ -1939,7 +1939,7 @@
       </c>
       <c r="D34">
         <f>D33-0.5</f>
-        <v>7.269856943675153</v>
+        <v>7.2081557750572705</v>
       </c>
       <c r="E34" s="11">
         <f>FLOOR(D34,1)</f>
@@ -1947,7 +1947,7 @@
       </c>
       <c r="F34" s="3">
         <f>(E34-D34)/D34</f>
-        <v>-3.7119979906885404E-2</v>
+        <v>-2.8877813070794327E-2</v>
       </c>
       <c r="G34" s="8" t="b">
         <f>F35&lt;0</f>
@@ -1963,7 +1963,7 @@
       </c>
       <c r="D35">
         <f>(D23-D26)/D28+1</f>
-        <v>6.5994660272055254</v>
+        <v>6.5444120119978502</v>
       </c>
       <c r="E35" s="11">
         <f>FLOOR(D35,1)</f>
@@ -1971,7 +1971,7 @@
       </c>
       <c r="F35" s="3">
         <f>(E35-D35)/D35</f>
-        <v>-9.0835534986360558E-2</v>
+        <v>-8.3187307125495963E-2</v>
       </c>
       <c r="G35" s="8" t="b">
         <f>F35&lt;0</f>

--- a/AOSMapmaker/docs/dimensions.xlsx
+++ b/AOSMapmaker/docs/dimensions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bhipsher\git\localAOSMapMaker\AOSMapmaker\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98ADD00E-E083-4423-AD2E-AA3DDBE2C2FF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AFC8428-8F79-475D-BEF7-58E5AEF514FD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9600" yWindow="4890" windowWidth="28800" windowHeight="15435" xr2:uid="{40905910-5CB8-4363-AAC9-7B82BA24352D}"/>
   </bookViews>
@@ -1468,7 +1468,7 @@
   <dimension ref="B4:J35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1711,12 +1711,12 @@
         <v>6</v>
       </c>
       <c r="D22" s="9">
-        <f>280*4</f>
-        <v>1120</v>
+        <f>280*4.6</f>
+        <v>1288</v>
       </c>
       <c r="E22" s="10">
         <f>ROUND(D22,0)</f>
-        <v>1120</v>
+        <v>1288</v>
       </c>
       <c r="F22" s="4">
         <f>(E22-D22)/D22</f>
@@ -1732,15 +1732,15 @@
       </c>
       <c r="D23">
         <f>D22*D17</f>
-        <v>865.45454545454538</v>
+        <v>995.27272727272725</v>
       </c>
       <c r="E23" s="11">
         <f>ROUND(D23,0)</f>
-        <v>865</v>
+        <v>995</v>
       </c>
       <c r="F23" s="4">
         <f>(E23-D23)/D23</f>
-        <v>-5.2521008403352994E-4</v>
+        <v>-2.7402265253925582E-4</v>
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.25">
@@ -1755,19 +1755,19 @@
       </c>
       <c r="D25" s="18">
         <f>D22*D16+5</f>
-        <v>145.30064423765211</v>
+        <v>166.34574087329995</v>
       </c>
       <c r="E25" s="14">
         <f>ROUND(D25,0)</f>
-        <v>145</v>
+        <v>166</v>
       </c>
       <c r="F25" s="4">
         <f>(E25-D25)/D25</f>
-        <v>-2.0691184077640946E-3</v>
+        <v>-2.0784474040924485E-3</v>
       </c>
       <c r="G25" s="8" t="b">
         <f>ISEVEN(E25)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H25" s="5" t="s">
         <v>22</v>
@@ -1782,15 +1782,15 @@
       </c>
       <c r="D26" s="16">
         <f>D25*D18</f>
-        <v>167.77873212806898</v>
+        <v>192.07951654349489</v>
       </c>
       <c r="E26" s="16">
         <f>ROUND(D26,0)</f>
-        <v>168</v>
+        <v>192</v>
       </c>
       <c r="F26" s="4">
         <f>(E26-D26)/D26</f>
-        <v>1.3188076290987865E-3</v>
+        <v>-4.1397721592496828E-4</v>
       </c>
       <c r="G26" s="8" t="b">
         <f>ISEVEN(E26)</f>
@@ -1809,19 +1809,19 @@
       </c>
       <c r="D27" s="14">
         <f>D25/2</f>
-        <v>72.650322118826054</v>
+        <v>83.172870436649973</v>
       </c>
       <c r="E27" s="15">
         <f>ROUND(D27,0)</f>
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="F27" s="4">
         <f>(E27-D27)/D27</f>
-        <v>4.8131635342513251E-3</v>
+        <v>-2.0784474040924485E-3</v>
       </c>
       <c r="G27" s="8" t="b">
         <f>F27&lt;0</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H27" s="5" t="s">
         <v>29</v>
@@ -1836,19 +1836,19 @@
       </c>
       <c r="D28" s="12">
         <f>D25*D19</f>
-        <v>125.83404909605173</v>
+        <v>144.05963740762118</v>
       </c>
       <c r="E28" s="13">
         <f>ROUND(D28,0)</f>
-        <v>126</v>
+        <v>144</v>
       </c>
       <c r="F28" s="4">
         <f>(E28-D28)/D28</f>
-        <v>1.3188076290988431E-3</v>
+        <v>-4.1397721592506689E-4</v>
       </c>
       <c r="G28" s="8" t="b">
         <f>F28&lt;0</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H28" s="5" t="s">
         <v>23</v>
@@ -1863,19 +1863,19 @@
       </c>
       <c r="D29" s="16">
         <f>D26/2</f>
-        <v>83.88936606403449</v>
+        <v>96.039758271747445</v>
       </c>
       <c r="E29" s="17">
         <f>ROUND(D29,0)</f>
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="F29" s="4">
         <f>(E29-D29)/D29</f>
-        <v>1.3188076290987865E-3</v>
+        <v>-4.1397721592496828E-4</v>
       </c>
       <c r="G29" s="8" t="b">
         <f>F29&lt;0</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H29" s="5" t="s">
         <v>39</v>
@@ -1901,7 +1901,7 @@
       </c>
       <c r="D32">
         <f>D22/D25</f>
-        <v>7.7081557750572705</v>
+        <v>7.7429093960453548</v>
       </c>
       <c r="E32" s="7"/>
       <c r="F32" s="3"/>
@@ -1915,7 +1915,7 @@
       </c>
       <c r="D33">
         <f>D32</f>
-        <v>7.7081557750572705</v>
+        <v>7.7429093960453548</v>
       </c>
       <c r="E33" s="11">
         <f>FLOOR(D33,1)</f>
@@ -1923,7 +1923,7 @@
       </c>
       <c r="F33" s="3">
         <f>(E33-D33)/D33</f>
-        <v>-9.1870973514674326E-2</v>
+        <v>-9.594706047119593E-2</v>
       </c>
       <c r="G33" s="8" t="b">
         <f>F33&lt;0</f>
@@ -1939,7 +1939,7 @@
       </c>
       <c r="D34">
         <f>D33-0.5</f>
-        <v>7.2081557750572705</v>
+        <v>7.2429093960453548</v>
       </c>
       <c r="E34" s="11">
         <f>FLOOR(D34,1)</f>
@@ -1947,7 +1947,7 @@
       </c>
       <c r="F34" s="3">
         <f>(E34-D34)/D34</f>
-        <v>-2.8877813070794327E-2</v>
+        <v>-3.35375444815013E-2</v>
       </c>
       <c r="G34" s="8" t="b">
         <f>F35&lt;0</f>
@@ -1963,7 +1963,7 @@
       </c>
       <c r="D35">
         <f>(D23-D26)/D28+1</f>
-        <v>6.5444120119978502</v>
+        <v>6.5754215766666997</v>
       </c>
       <c r="E35" s="11">
         <f>FLOOR(D35,1)</f>
@@ -1971,7 +1971,7 @@
       </c>
       <c r="F35" s="3">
         <f>(E35-D35)/D35</f>
-        <v>-8.3187307125495963E-2</v>
+        <v>-8.7510978567308842E-2</v>
       </c>
       <c r="G35" s="8" t="b">
         <f>F35&lt;0</f>

--- a/AOSMapmaker/docs/dimensions.xlsx
+++ b/AOSMapmaker/docs/dimensions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bhipsher\git\localAOSMapMaker\AOSMapmaker\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AFC8428-8F79-475D-BEF7-58E5AEF514FD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FD5B4A9-5E6C-4BBB-AF74-0B9F5C60C2AB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9600" yWindow="4890" windowWidth="28800" windowHeight="15435" xr2:uid="{40905910-5CB8-4363-AAC9-7B82BA24352D}"/>
   </bookViews>
@@ -43,6 +43,10 @@
     <author>tc={190D12C0-DB65-45C3-8667-CFF873C04021}</author>
     <author>tc={8F313EFA-5183-49E0-AFC0-3BBD60D41BA3}</author>
     <author>tc={4A1E9B06-65C6-431C-9267-E2D2C224D493}</author>
+    <author>tc={6945B63B-A565-4CC6-B210-3C6CDD619F07}</author>
+    <author>tc={C4BB9217-18E2-4C04-8D62-4FF6034D7D11}</author>
+    <author>tc={E07806D5-327A-48DB-A2FF-E82F23F9C9BA}</author>
+    <author>tc={4B835B4D-DC9C-4577-89E1-73452A913D3A}</author>
   </authors>
   <commentList>
     <comment ref="D25" authorId="0" shapeId="0" xr:uid="{7EF78C2A-3B4E-49BA-B3BB-4624EB55A1B8}">
@@ -127,12 +131,44 @@
     if negative, then hex placement will err on leaving a gap</t>
       </text>
     </comment>
+    <comment ref="G39" authorId="10" shapeId="0" xr:uid="{6945B63B-A565-4CC6-B210-3C6CDD619F07}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    if negative, then hex placement will err on leaving a gap</t>
+      </text>
+    </comment>
+    <comment ref="G40" authorId="11" shapeId="0" xr:uid="{C4BB9217-18E2-4C04-8D62-4FF6034D7D11}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    if negative, then hex placement will err on leaving a gap</t>
+      </text>
+    </comment>
+    <comment ref="D41" authorId="12" shapeId="0" xr:uid="{E07806D5-327A-48DB-A2FF-E82F23F9C9BA}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    total height = d_c for first, then h_i for additional</t>
+      </text>
+    </comment>
+    <comment ref="G41" authorId="13" shapeId="0" xr:uid="{4B835B4D-DC9C-4577-89E1-73452A913D3A}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    if negative, then hex placement will err on leaving a gap</t>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="41">
   <si>
     <t>d_c</t>
   </si>
@@ -252,6 +288,9 @@
   </si>
   <si>
     <t>--&gt; used as edge; needs to be even</t>
+  </si>
+  <si>
+    <t>1x2h::hex</t>
   </si>
 </sst>
 </file>
@@ -263,7 +302,7 @@
     <numFmt numFmtId="165" formatCode="0.0%"/>
     <numFmt numFmtId="166" formatCode="0.0000%"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -349,6 +388,12 @@
       <color theme="6" tint="-0.249977111117893"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="5">
@@ -455,7 +500,17 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -522,7 +577,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7058025" y="2114550"/>
+          <a:off x="7400925" y="2114550"/>
           <a:ext cx="4391423" cy="4838700"/>
           <a:chOff x="7258050" y="2400300"/>
           <a:chExt cx="4391423" cy="4838700"/>
@@ -1460,15 +1515,27 @@
   <threadedComment ref="G35" dT="2019-07-07T14:42:05.74" personId="{E75EAB0A-8B97-4176-B264-DD99CAD4A3BE}" id="{4A1E9B06-65C6-431C-9267-E2D2C224D493}">
     <text>if negative, then hex placement will err on leaving a gap</text>
   </threadedComment>
+  <threadedComment ref="G39" dT="2019-07-07T14:42:05.74" personId="{E75EAB0A-8B97-4176-B264-DD99CAD4A3BE}" id="{6945B63B-A565-4CC6-B210-3C6CDD619F07}">
+    <text>if negative, then hex placement will err on leaving a gap</text>
+  </threadedComment>
+  <threadedComment ref="G40" dT="2019-07-07T14:42:05.74" personId="{E75EAB0A-8B97-4176-B264-DD99CAD4A3BE}" id="{C4BB9217-18E2-4C04-8D62-4FF6034D7D11}">
+    <text>if negative, then hex placement will err on leaving a gap</text>
+  </threadedComment>
+  <threadedComment ref="D41" dT="2019-07-07T14:58:43.81" personId="{E75EAB0A-8B97-4176-B264-DD99CAD4A3BE}" id="{E07806D5-327A-48DB-A2FF-E82F23F9C9BA}">
+    <text>total height = d_c for first, then h_i for additional</text>
+  </threadedComment>
+  <threadedComment ref="G41" dT="2019-07-07T14:42:05.74" personId="{E75EAB0A-8B97-4176-B264-DD99CAD4A3BE}" id="{4B835B4D-DC9C-4577-89E1-73452A913D3A}">
+    <text>if negative, then hex placement will err on leaving a gap</text>
+  </threadedComment>
 </ThreadedComments>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF54E11B-4AE4-43D0-AEC5-6B7D14D41F0B}">
-  <dimension ref="B4:J35"/>
+  <dimension ref="B4:J41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1476,6 +1543,7 @@
     <col min="1" max="1" width="1.5703125" customWidth="1"/>
     <col min="2" max="2" width="21.28515625" customWidth="1"/>
     <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1978,13 +2046,115 @@
         <v>1</v>
       </c>
     </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D37" t="s">
+        <v>12</v>
+      </c>
+      <c r="E37" t="s">
+        <v>25</v>
+      </c>
+      <c r="F37" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>40</v>
+      </c>
+      <c r="C38" t="s">
+        <v>33</v>
+      </c>
+      <c r="D38">
+        <f>D22/D25</f>
+        <v>7.7429093960453548</v>
+      </c>
+      <c r="E38" s="7"/>
+      <c r="F38" s="3"/>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>40</v>
+      </c>
+      <c r="C39" t="s">
+        <v>34</v>
+      </c>
+      <c r="D39">
+        <f>D38</f>
+        <v>7.7429093960453548</v>
+      </c>
+      <c r="E39" s="11">
+        <f>FLOOR(D39,1)</f>
+        <v>7</v>
+      </c>
+      <c r="F39" s="3">
+        <f>(E39-D39)/D39</f>
+        <v>-9.594706047119593E-2</v>
+      </c>
+      <c r="G39" s="8" t="b">
+        <f>F39&lt;0</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>40</v>
+      </c>
+      <c r="C40" t="s">
+        <v>35</v>
+      </c>
+      <c r="D40">
+        <f>D39-0.5</f>
+        <v>7.2429093960453548</v>
+      </c>
+      <c r="E40" s="11">
+        <f>FLOOR(D40,1)</f>
+        <v>7</v>
+      </c>
+      <c r="F40" s="3">
+        <f>(E40-D40)/D40</f>
+        <v>-3.35375444815013E-2</v>
+      </c>
+      <c r="G40" s="8" t="b">
+        <f>F41&lt;0</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>40</v>
+      </c>
+      <c r="C41" t="s">
+        <v>7</v>
+      </c>
+      <c r="D41">
+        <f>(D23*2-D26)/D28+1</f>
+        <v>13.484176486666732</v>
+      </c>
+      <c r="E41" s="11">
+        <f>FLOOR(D41,1)</f>
+        <v>13</v>
+      </c>
+      <c r="F41" s="3">
+        <f>(E41-D41)/D41</f>
+        <v>-3.5907011981450208E-2</v>
+      </c>
+      <c r="G41" s="8" t="b">
+        <f>F41&lt;0</f>
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="G33:G35 G25:G28">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G29">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G29">
+  <conditionalFormatting sqref="G39:G41">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
